--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="196">
   <si>
     <t>No.</t>
   </si>
@@ -611,6 +611,15 @@
   </si>
   <si>
     <t>Array</t>
+  </si>
+  <si>
+    <t>CartDetails (Child Collection of Cart)</t>
+  </si>
+  <si>
+    <t>BuyType</t>
+  </si>
+  <si>
+    <t>Enum</t>
   </si>
 </sst>
 </file>
@@ -1385,6 +1394,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1410,16 +1429,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1739,10 +1748,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:AN930"/>
+  <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F75" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2353,17 +2362,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="186" t="s">
+      <c r="A19" s="190" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2679,17 +2688,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="186" t="s">
+      <c r="A28" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3179,17 +3188,17 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="193" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="194"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="195"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3679,17 +3688,17 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="192" t="s">
+      <c r="A56" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="192"/>
-      <c r="C56" s="192"/>
-      <c r="D56" s="192"/>
-      <c r="E56" s="192"/>
-      <c r="F56" s="192"/>
-      <c r="G56" s="192"/>
-      <c r="H56" s="192"/>
-      <c r="I56" s="192"/>
+      <c r="B56" s="196"/>
+      <c r="C56" s="196"/>
+      <c r="D56" s="196"/>
+      <c r="E56" s="196"/>
+      <c r="F56" s="196"/>
+      <c r="G56" s="196"/>
+      <c r="H56" s="196"/>
+      <c r="I56" s="196"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4223,13 +4232,13 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="193" t="s">
+      <c r="A71" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="194"/>
-      <c r="C71" s="194"/>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="198"/>
+      <c r="D71" s="198"/>
+      <c r="E71" s="198"/>
       <c r="F71" s="50"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
@@ -4677,15 +4686,17 @@
         <v>9</v>
       </c>
       <c r="B83" s="154" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="C83" s="155" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="D83" s="159">
         <v>50</v>
       </c>
-      <c r="E83" s="160"/>
+      <c r="E83" s="160" t="s">
+        <v>15</v>
+      </c>
       <c r="F83" s="158" t="s">
         <v>29</v>
       </c>
@@ -4712,22 +4723,30 @@
       <c r="Y83" s="77"/>
       <c r="Z83" s="77"/>
     </row>
-    <row r="84" spans="1:40" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="110">
-        <v>10</v>
-      </c>
-      <c r="B84" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="D84" s="112"/>
-      <c r="E84" s="113"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="110"/>
-      <c r="H84" s="110"/>
-      <c r="I84" s="110"/>
+    <row r="84" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="154">
+        <v>9</v>
+      </c>
+      <c r="B84" s="154" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="159">
+        <v>50</v>
+      </c>
+      <c r="E84" s="160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="154"/>
+      <c r="H84" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" s="154"/>
       <c r="J84" s="77"/>
       <c r="K84" s="77"/>
       <c r="L84" s="77"/>
@@ -4745,27 +4764,13 @@
       <c r="X84" s="77"/>
       <c r="Y84" s="77"/>
       <c r="Z84" s="77"/>
-      <c r="AA84" s="77"/>
-      <c r="AB84" s="77"/>
-      <c r="AC84" s="77"/>
-      <c r="AD84" s="77"/>
-      <c r="AE84" s="77"/>
-      <c r="AF84" s="77"/>
-      <c r="AG84" s="77"/>
-      <c r="AH84" s="77"/>
-      <c r="AI84" s="77"/>
-      <c r="AJ84" s="77"/>
-      <c r="AK84" s="77"/>
-      <c r="AL84" s="77"/>
-      <c r="AM84" s="77"/>
-      <c r="AN84" s="77"/>
     </row>
     <row r="85" spans="1:40" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="110">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" s="110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" s="111" t="s">
         <v>125</v>
@@ -4810,10 +4815,10 @@
     </row>
     <row r="86" spans="1:40" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="110">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C86" s="111" t="s">
         <v>125</v>
@@ -4856,16 +4861,22 @@
       <c r="AM86" s="77"/>
       <c r="AN86" s="77"/>
     </row>
-    <row r="87" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+    <row r="87" spans="1:40" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="110">
+        <v>12</v>
+      </c>
+      <c r="B87" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="112"/>
+      <c r="E87" s="113"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="110"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="110"/>
       <c r="J87" s="77"/>
       <c r="K87" s="77"/>
       <c r="L87" s="77"/>
@@ -4883,19 +4894,31 @@
       <c r="X87" s="77"/>
       <c r="Y87" s="77"/>
       <c r="Z87" s="77"/>
+      <c r="AA87" s="77"/>
+      <c r="AB87" s="77"/>
+      <c r="AC87" s="77"/>
+      <c r="AD87" s="77"/>
+      <c r="AE87" s="77"/>
+      <c r="AF87" s="77"/>
+      <c r="AG87" s="77"/>
+      <c r="AH87" s="77"/>
+      <c r="AI87" s="77"/>
+      <c r="AJ87" s="77"/>
+      <c r="AK87" s="77"/>
+      <c r="AL87" s="77"/>
+      <c r="AM87" s="77"/>
+      <c r="AN87" s="77"/>
     </row>
     <row r="88" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="195" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="194"/>
-      <c r="C88" s="194"/>
-      <c r="D88" s="194"/>
-      <c r="E88" s="194"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="52"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
       <c r="J88" s="77"/>
       <c r="K88" s="77"/>
       <c r="L88" s="77"/>
@@ -4915,33 +4938,17 @@
       <c r="Z88" s="77"/>
     </row>
     <row r="89" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" s="53" t="s">
-        <v>8</v>
-      </c>
+      <c r="A89" s="199" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="198"/>
+      <c r="C89" s="198"/>
+      <c r="D89" s="198"/>
+      <c r="E89" s="198"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="52"/>
       <c r="J89" s="77"/>
       <c r="K89" s="77"/>
       <c r="L89" s="77"/>
@@ -4961,25 +4968,33 @@
       <c r="Z89" s="77"/>
     </row>
     <row r="90" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="162">
+      <c r="A90" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="162" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="164"/>
-      <c r="E90" s="165"/>
-      <c r="F90" s="166" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="166"/>
-      <c r="H90" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="166"/>
+      <c r="C90" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="53" t="s">
+        <v>8</v>
+      </c>
       <c r="J90" s="77"/>
       <c r="K90" s="77"/>
       <c r="L90" s="77"/>
@@ -4999,25 +5014,25 @@
       <c r="Z90" s="77"/>
     </row>
     <row r="91" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="167">
-        <v>3</v>
-      </c>
-      <c r="B91" s="167" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="168" t="s">
+      <c r="A91" s="162">
+        <v>1</v>
+      </c>
+      <c r="B91" s="162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="169"/>
-      <c r="E91" s="170"/>
-      <c r="F91" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" s="167"/>
-      <c r="H91" s="167" t="s">
-        <v>48</v>
-      </c>
-      <c r="I91" s="167"/>
+      <c r="D91" s="164"/>
+      <c r="E91" s="165"/>
+      <c r="F91" s="166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="166"/>
+      <c r="H91" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="166"/>
       <c r="J91" s="77"/>
       <c r="K91" s="77"/>
       <c r="L91" s="77"/>
@@ -5036,46 +5051,50 @@
       <c r="Y91" s="77"/>
       <c r="Z91" s="77"/>
     </row>
-    <row r="92" spans="1:40" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" s="167" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C92" s="168" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D92" s="169"/>
       <c r="E92" s="170"/>
-      <c r="F92" s="167"/>
+      <c r="F92" s="167" t="s">
+        <v>29</v>
+      </c>
       <c r="G92" s="167"/>
-      <c r="H92" s="167"/>
+      <c r="H92" s="167" t="s">
+        <v>48</v>
+      </c>
       <c r="I92" s="167"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="54"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="54"/>
-      <c r="O92" s="54"/>
-      <c r="P92" s="54"/>
-      <c r="Q92" s="54"/>
-      <c r="R92" s="54"/>
-      <c r="S92" s="54"/>
-      <c r="T92" s="54"/>
-      <c r="U92" s="54"/>
-      <c r="V92" s="54"/>
-      <c r="W92" s="54"/>
-      <c r="X92" s="54"/>
-      <c r="Y92" s="54"/>
-      <c r="Z92" s="54"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
+      <c r="M92" s="77"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="77"/>
+      <c r="Q92" s="77"/>
+      <c r="R92" s="77"/>
+      <c r="S92" s="77"/>
+      <c r="T92" s="77"/>
+      <c r="U92" s="77"/>
+      <c r="V92" s="77"/>
+      <c r="W92" s="77"/>
+      <c r="X92" s="77"/>
+      <c r="Y92" s="77"/>
+      <c r="Z92" s="77"/>
     </row>
     <row r="93" spans="1:40" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A93" s="167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="167" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C93" s="168" t="s">
         <v>26</v>
@@ -5104,84 +5123,90 @@
       <c r="Y93" s="54"/>
       <c r="Z93" s="54"/>
     </row>
-    <row r="94" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="79"/>
-      <c r="B94" s="84" t="s">
+    <row r="94" spans="1:40" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A94" s="167">
+        <v>5</v>
+      </c>
+      <c r="B94" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="169"/>
+      <c r="E94" s="170"/>
+      <c r="F94" s="167"/>
+      <c r="G94" s="167"/>
+      <c r="H94" s="167"/>
+      <c r="I94" s="167"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="54"/>
+      <c r="L94" s="54"/>
+      <c r="M94" s="54"/>
+      <c r="N94" s="54"/>
+      <c r="O94" s="54"/>
+      <c r="P94" s="54"/>
+      <c r="Q94" s="54"/>
+      <c r="R94" s="54"/>
+      <c r="S94" s="54"/>
+      <c r="T94" s="54"/>
+      <c r="U94" s="54"/>
+      <c r="V94" s="54"/>
+      <c r="W94" s="54"/>
+      <c r="X94" s="54"/>
+      <c r="Y94" s="54"/>
+      <c r="Z94" s="54"/>
+    </row>
+    <row r="95" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="79"/>
+      <c r="B95" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="85" t="s">
+      <c r="C95" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="86"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="84" t="b">
+      <c r="D95" s="86"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="84" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="87"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="77"/>
-      <c r="L94" s="77"/>
-      <c r="M94" s="77"/>
-      <c r="N94" s="77"/>
-      <c r="O94" s="77"/>
-      <c r="P94" s="77"/>
-      <c r="Q94" s="77"/>
-      <c r="R94" s="77"/>
-      <c r="S94" s="77"/>
-      <c r="T94" s="77"/>
-      <c r="U94" s="77"/>
-      <c r="V94" s="77"/>
-      <c r="W94" s="77"/>
-      <c r="X94" s="77"/>
-      <c r="Y94" s="77"/>
-      <c r="Z94" s="77"/>
-    </row>
-    <row r="95" spans="1:40" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A95" s="167">
+      <c r="H95" s="87"/>
+      <c r="I95" s="84"/>
+      <c r="J95" s="77"/>
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
+      <c r="M95" s="77"/>
+      <c r="N95" s="77"/>
+      <c r="O95" s="77"/>
+      <c r="P95" s="77"/>
+      <c r="Q95" s="77"/>
+      <c r="R95" s="77"/>
+      <c r="S95" s="77"/>
+      <c r="T95" s="77"/>
+      <c r="U95" s="77"/>
+      <c r="V95" s="77"/>
+      <c r="W95" s="77"/>
+      <c r="X95" s="77"/>
+      <c r="Y95" s="77"/>
+      <c r="Z95" s="77"/>
+    </row>
+    <row r="96" spans="1:40" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A96" s="167">
         <v>6</v>
       </c>
-      <c r="B95" s="167" t="s">
+      <c r="B96" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="168" t="s">
+      <c r="C96" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="169"/>
-      <c r="E95" s="170"/>
-      <c r="F95" s="167"/>
-      <c r="G95" s="167"/>
-      <c r="H95" s="167"/>
-      <c r="I95" s="167"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="54"/>
-      <c r="S95" s="54"/>
-      <c r="T95" s="54"/>
-      <c r="U95" s="54"/>
-      <c r="V95" s="54"/>
-      <c r="W95" s="54"/>
-      <c r="X95" s="54"/>
-      <c r="Y95" s="54"/>
-      <c r="Z95" s="54"/>
-    </row>
-    <row r="96" spans="1:40" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A96" s="196"/>
-      <c r="B96" s="196"/>
-      <c r="C96" s="197"/>
-      <c r="D96" s="198"/>
-      <c r="E96" s="199"/>
-      <c r="F96" s="196"/>
-      <c r="G96" s="196"/>
-      <c r="H96" s="196"/>
-      <c r="I96" s="196"/>
+      <c r="D96" s="169"/>
+      <c r="E96" s="170"/>
+      <c r="F96" s="167"/>
+      <c r="G96" s="167"/>
+      <c r="H96" s="167"/>
+      <c r="I96" s="167"/>
       <c r="J96" s="54"/>
       <c r="K96" s="54"/>
       <c r="L96" s="54"/>
@@ -5200,64 +5225,46 @@
       <c r="Y96" s="54"/>
       <c r="Z96" s="54"/>
     </row>
-    <row r="97" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="193" t="s">
+    <row r="97" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A97" s="186"/>
+      <c r="B97" s="186"/>
+      <c r="C97" s="187"/>
+      <c r="D97" s="188"/>
+      <c r="E97" s="189"/>
+      <c r="F97" s="186"/>
+      <c r="G97" s="186"/>
+      <c r="H97" s="186"/>
+      <c r="I97" s="186"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="54"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="54"/>
+      <c r="Q97" s="54"/>
+      <c r="R97" s="54"/>
+      <c r="S97" s="54"/>
+      <c r="T97" s="54"/>
+      <c r="U97" s="54"/>
+      <c r="V97" s="54"/>
+      <c r="W97" s="54"/>
+      <c r="X97" s="54"/>
+      <c r="Y97" s="54"/>
+      <c r="Z97" s="54"/>
+    </row>
+    <row r="98" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="194"/>
-      <c r="C97" s="194"/>
-      <c r="D97" s="194"/>
-      <c r="E97" s="194"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I98" s="51" t="s">
-        <v>8</v>
-      </c>
+      <c r="B98" s="198"/>
+      <c r="C98" s="198"/>
+      <c r="D98" s="198"/>
+      <c r="E98" s="198"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -5276,26 +5283,34 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="150">
+    <row r="99" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="150" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="151" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="152"/>
-      <c r="E99" s="153"/>
-      <c r="F99" s="150" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="150"/>
-      <c r="H99" s="150" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" s="150"/>
+      <c r="C99" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="51" t="s">
+        <v>8</v>
+      </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -5314,60 +5329,58 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:36" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="79"/>
-      <c r="B100" s="84" t="s">
+    <row r="100" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="150">
+        <v>1</v>
+      </c>
+      <c r="B100" s="150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="152"/>
+      <c r="E100" s="153"/>
+      <c r="F100" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="150"/>
+      <c r="H100" s="150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" s="150"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+    </row>
+    <row r="101" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="79"/>
+      <c r="B101" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="C100" s="85" t="s">
+      <c r="C101" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="D100" s="86"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="87"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="87"/>
-      <c r="I100" s="84"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
-      <c r="L100" s="77"/>
-      <c r="M100" s="77"/>
-      <c r="N100" s="77"/>
-      <c r="O100" s="77"/>
-      <c r="P100" s="77"/>
-      <c r="Q100" s="77"/>
-      <c r="R100" s="77"/>
-      <c r="S100" s="77"/>
-      <c r="T100" s="77"/>
-      <c r="U100" s="77"/>
-      <c r="V100" s="77"/>
-      <c r="W100" s="77"/>
-      <c r="X100" s="77"/>
-      <c r="Y100" s="77"/>
-      <c r="Z100" s="77"/>
-    </row>
-    <row r="101" spans="1:36" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="154">
-        <v>8</v>
-      </c>
-      <c r="B101" s="154" t="s">
-        <v>43</v>
-      </c>
-      <c r="C101" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="159">
-        <v>50</v>
-      </c>
-      <c r="E101" s="160"/>
-      <c r="F101" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" s="154"/>
-      <c r="H101" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I101" s="154"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="87"/>
+      <c r="I101" s="84"/>
       <c r="J101" s="77"/>
       <c r="K101" s="77"/>
       <c r="L101" s="77"/>
@@ -5386,16 +5399,28 @@
       <c r="Y101" s="77"/>
       <c r="Z101" s="77"/>
     </row>
-    <row r="102" spans="1:36" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+    <row r="102" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="154">
+        <v>8</v>
+      </c>
+      <c r="B102" s="154" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="159">
+        <v>50</v>
+      </c>
+      <c r="E102" s="160"/>
+      <c r="F102" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="154"/>
+      <c r="H102" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I102" s="154"/>
       <c r="J102" s="77"/>
       <c r="K102" s="77"/>
       <c r="L102" s="77"/>
@@ -5414,18 +5439,16 @@
       <c r="Y102" s="77"/>
       <c r="Z102" s="77"/>
     </row>
-    <row r="103" spans="1:36" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="195" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" s="194"/>
-      <c r="C103" s="194"/>
-      <c r="D103" s="194"/>
-      <c r="E103" s="194"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="52"/>
+    <row r="103" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
       <c r="J103" s="77"/>
       <c r="K103" s="77"/>
       <c r="L103" s="77"/>
@@ -5444,34 +5467,18 @@
       <c r="Y103" s="77"/>
       <c r="Z103" s="77"/>
     </row>
-    <row r="104" spans="1:36" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F104" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H104" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I104" s="53" t="s">
-        <v>8</v>
-      </c>
+    <row r="104" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="199" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="198"/>
+      <c r="C104" s="198"/>
+      <c r="D104" s="198"/>
+      <c r="E104" s="198"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="52"/>
       <c r="J104" s="77"/>
       <c r="K104" s="77"/>
       <c r="L104" s="77"/>
@@ -5490,26 +5497,34 @@
       <c r="Y104" s="77"/>
       <c r="Z104" s="77"/>
     </row>
-    <row r="105" spans="1:36" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="162">
+    <row r="105" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="162" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" s="164"/>
-      <c r="E105" s="165"/>
-      <c r="F105" s="166" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="166"/>
-      <c r="H105" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" s="166"/>
+      <c r="C105" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="53" t="s">
+        <v>8</v>
+      </c>
       <c r="J105" s="77"/>
       <c r="K105" s="77"/>
       <c r="L105" s="77"/>
@@ -5528,26 +5543,26 @@
       <c r="Y105" s="77"/>
       <c r="Z105" s="77"/>
     </row>
-    <row r="106" spans="1:36" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="167">
-        <v>3</v>
-      </c>
-      <c r="B106" s="167" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="168" t="s">
+    <row r="106" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="162">
+        <v>1</v>
+      </c>
+      <c r="B106" s="162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="D106" s="169"/>
-      <c r="E106" s="170"/>
-      <c r="F106" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" s="167"/>
-      <c r="H106" s="167" t="s">
-        <v>48</v>
-      </c>
-      <c r="I106" s="167"/>
+      <c r="D106" s="164"/>
+      <c r="E106" s="165"/>
+      <c r="F106" s="166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="166"/>
+      <c r="H106" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="166"/>
       <c r="J106" s="77"/>
       <c r="K106" s="77"/>
       <c r="L106" s="77"/>
@@ -5566,50 +5581,60 @@
       <c r="Y106" s="77"/>
       <c r="Z106" s="77"/>
     </row>
-    <row r="107" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107" s="167" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C107" s="168" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D107" s="169"/>
       <c r="E107" s="170"/>
-      <c r="F107" s="167"/>
+      <c r="F107" s="167" t="s">
+        <v>29</v>
+      </c>
       <c r="G107" s="167"/>
-      <c r="H107" s="167"/>
+      <c r="H107" s="167" t="s">
+        <v>48</v>
+      </c>
       <c r="I107" s="167"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="54"/>
-      <c r="P107" s="54"/>
-      <c r="Q107" s="54"/>
-      <c r="R107" s="54"/>
-      <c r="S107" s="54"/>
-      <c r="T107" s="54"/>
-      <c r="U107" s="54"/>
-      <c r="V107" s="54"/>
-      <c r="W107" s="54"/>
-      <c r="X107" s="54"/>
-      <c r="Y107" s="54"/>
-      <c r="Z107" s="54"/>
-    </row>
-    <row r="108" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A108" s="54"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
+      <c r="Q107" s="77"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="77"/>
+      <c r="V107" s="77"/>
+      <c r="W107" s="77"/>
+      <c r="X107" s="77"/>
+      <c r="Y107" s="77"/>
+      <c r="Z107" s="77"/>
+    </row>
+    <row r="108" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A108" s="167">
+        <v>4</v>
+      </c>
+      <c r="B108" s="167" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="169"/>
+      <c r="E108" s="170"/>
+      <c r="F108" s="167"/>
+      <c r="G108" s="167"/>
+      <c r="H108" s="167"/>
+      <c r="I108" s="167"/>
       <c r="J108" s="54"/>
       <c r="K108" s="54"/>
       <c r="L108" s="54"/>
@@ -5628,1513 +5653,33 @@
       <c r="Y108" s="54"/>
       <c r="Z108" s="54"/>
     </row>
-    <row r="109" spans="1:36" s="78" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A109" s="187" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="188"/>
-      <c r="C109" s="188"/>
-      <c r="D109" s="188"/>
-      <c r="E109" s="188"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="88"/>
-      <c r="O109" s="88"/>
-      <c r="P109" s="88"/>
-      <c r="Q109" s="88"/>
-      <c r="R109" s="88"/>
-      <c r="S109" s="88"/>
-      <c r="T109" s="88"/>
-      <c r="U109" s="88"/>
-      <c r="V109" s="88"/>
-      <c r="W109" s="88"/>
-      <c r="X109" s="88"/>
-      <c r="Y109" s="88"/>
-      <c r="Z109" s="88"/>
-    </row>
-    <row r="110" spans="1:36" s="78" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A110" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="H110" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I110" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="J110" s="77"/>
-      <c r="K110" s="77"/>
-      <c r="L110" s="77"/>
-      <c r="M110" s="77"/>
-      <c r="N110" s="77"/>
-      <c r="O110" s="77"/>
-      <c r="P110" s="77"/>
-      <c r="Q110" s="77"/>
-      <c r="R110" s="77"/>
-      <c r="S110" s="77"/>
-      <c r="T110" s="77"/>
-      <c r="U110" s="77"/>
-      <c r="V110" s="77"/>
-      <c r="W110" s="77"/>
-      <c r="X110" s="77"/>
-      <c r="Y110" s="77"/>
-      <c r="Z110" s="77"/>
-      <c r="AA110" s="77"/>
-      <c r="AB110" s="77"/>
-      <c r="AC110" s="77"/>
-      <c r="AD110" s="77"/>
-      <c r="AE110" s="77"/>
-      <c r="AF110" s="77"/>
-      <c r="AG110" s="77"/>
-      <c r="AH110" s="77"/>
-      <c r="AI110" s="77"/>
-      <c r="AJ110" s="77"/>
-    </row>
-    <row r="111" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A111" s="116">
-        <v>1</v>
-      </c>
-      <c r="B111" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="D111" s="118"/>
-      <c r="E111" s="119"/>
-      <c r="F111" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="120"/>
-      <c r="H111" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" s="120"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="77"/>
-      <c r="L111" s="77"/>
-      <c r="M111" s="77"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="77"/>
-      <c r="Q111" s="77"/>
-      <c r="R111" s="77"/>
-      <c r="S111" s="77"/>
-      <c r="T111" s="77"/>
-      <c r="U111" s="77"/>
-      <c r="V111" s="77"/>
-      <c r="W111" s="77"/>
-      <c r="X111" s="77"/>
-      <c r="Y111" s="77"/>
-      <c r="Z111" s="77"/>
-      <c r="AA111" s="77"/>
-      <c r="AB111" s="77"/>
-      <c r="AC111" s="77"/>
-      <c r="AD111" s="77"/>
-      <c r="AE111" s="77"/>
-      <c r="AF111" s="77"/>
-      <c r="AG111" s="77"/>
-      <c r="AH111" s="77"/>
-      <c r="AI111" s="77"/>
-      <c r="AJ111" s="77"/>
-    </row>
-    <row r="112" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A112" s="123">
-        <v>2</v>
-      </c>
-      <c r="B112" s="123" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" s="125"/>
-      <c r="E112" s="126"/>
-      <c r="F112" s="123"/>
-      <c r="G112" s="123"/>
-      <c r="H112" s="127"/>
-      <c r="I112" s="123"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="77"/>
-      <c r="L112" s="77"/>
-      <c r="M112" s="77"/>
-      <c r="N112" s="77"/>
-      <c r="O112" s="77"/>
-      <c r="P112" s="77"/>
-      <c r="Q112" s="77"/>
-      <c r="R112" s="77"/>
-      <c r="S112" s="77"/>
-      <c r="T112" s="77"/>
-      <c r="U112" s="77"/>
-      <c r="V112" s="77"/>
-      <c r="W112" s="77"/>
-      <c r="X112" s="77"/>
-      <c r="Y112" s="77"/>
-      <c r="Z112" s="77"/>
-      <c r="AA112" s="77"/>
-      <c r="AB112" s="77"/>
-      <c r="AC112" s="77"/>
-      <c r="AD112" s="77"/>
-      <c r="AE112" s="77"/>
-      <c r="AF112" s="77"/>
-      <c r="AG112" s="77"/>
-      <c r="AH112" s="77"/>
-      <c r="AI112" s="77"/>
-      <c r="AJ112" s="77"/>
-    </row>
-    <row r="113" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A113" s="123">
-        <v>3</v>
-      </c>
-      <c r="B113" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="125"/>
-      <c r="E113" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="F113" s="123"/>
-      <c r="G113" s="123"/>
-      <c r="H113" s="127"/>
-      <c r="I113" s="123"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="77"/>
-      <c r="L113" s="77"/>
-      <c r="M113" s="77"/>
-      <c r="N113" s="77"/>
-      <c r="O113" s="77"/>
-      <c r="P113" s="77"/>
-      <c r="Q113" s="77"/>
-      <c r="R113" s="77"/>
-      <c r="S113" s="77"/>
-      <c r="T113" s="77"/>
-      <c r="U113" s="77"/>
-      <c r="V113" s="77"/>
-      <c r="W113" s="77"/>
-      <c r="X113" s="77"/>
-      <c r="Y113" s="77"/>
-      <c r="Z113" s="77"/>
-      <c r="AA113" s="77"/>
-      <c r="AB113" s="77"/>
-      <c r="AC113" s="77"/>
-      <c r="AD113" s="77"/>
-      <c r="AE113" s="77"/>
-      <c r="AF113" s="77"/>
-      <c r="AG113" s="77"/>
-      <c r="AH113" s="77"/>
-      <c r="AI113" s="77"/>
-      <c r="AJ113" s="77"/>
-    </row>
-    <row r="114" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A114" s="123">
-        <v>4</v>
-      </c>
-      <c r="B114" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="125"/>
-      <c r="E114" s="126"/>
-      <c r="F114" s="123"/>
-      <c r="G114" s="123"/>
-      <c r="H114" s="127"/>
-      <c r="I114" s="123"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="77"/>
-      <c r="L114" s="77"/>
-      <c r="M114" s="77"/>
-      <c r="N114" s="77"/>
-      <c r="O114" s="77"/>
-      <c r="P114" s="77"/>
-      <c r="Q114" s="77"/>
-      <c r="R114" s="77"/>
-      <c r="S114" s="77"/>
-      <c r="T114" s="77"/>
-      <c r="U114" s="77"/>
-      <c r="V114" s="77"/>
-      <c r="W114" s="77"/>
-      <c r="X114" s="77"/>
-      <c r="Y114" s="77"/>
-      <c r="Z114" s="77"/>
-      <c r="AA114" s="77"/>
-      <c r="AB114" s="77"/>
-      <c r="AC114" s="77"/>
-      <c r="AD114" s="77"/>
-      <c r="AE114" s="77"/>
-      <c r="AF114" s="77"/>
-      <c r="AG114" s="77"/>
-      <c r="AH114" s="77"/>
-      <c r="AI114" s="77"/>
-      <c r="AJ114" s="77"/>
-    </row>
-    <row r="115" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="123">
-        <v>5</v>
-      </c>
-      <c r="B115" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" s="125"/>
-      <c r="E115" s="126"/>
-      <c r="F115" s="123"/>
-      <c r="G115" s="123"/>
-      <c r="H115" s="127"/>
-      <c r="I115" s="123"/>
-      <c r="J115" s="77"/>
-      <c r="K115" s="77"/>
-      <c r="L115" s="77"/>
-      <c r="M115" s="77"/>
-      <c r="N115" s="77"/>
-      <c r="O115" s="77"/>
-      <c r="P115" s="77"/>
-      <c r="Q115" s="77"/>
-      <c r="R115" s="77"/>
-      <c r="S115" s="77"/>
-      <c r="T115" s="77"/>
-      <c r="U115" s="77"/>
-      <c r="V115" s="77"/>
-      <c r="W115" s="77"/>
-      <c r="X115" s="77"/>
-      <c r="Y115" s="77"/>
-      <c r="Z115" s="77"/>
-      <c r="AA115" s="77"/>
-      <c r="AB115" s="77"/>
-      <c r="AC115" s="77"/>
-      <c r="AD115" s="77"/>
-      <c r="AE115" s="77"/>
-      <c r="AF115" s="77"/>
-      <c r="AG115" s="77"/>
-      <c r="AH115" s="77"/>
-      <c r="AI115" s="77"/>
-      <c r="AJ115" s="77"/>
-    </row>
-    <row r="116" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="123">
-        <v>6</v>
-      </c>
-      <c r="B116" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="125"/>
-      <c r="E116" s="126"/>
-      <c r="F116" s="123"/>
-      <c r="G116" s="123"/>
-      <c r="H116" s="127"/>
-      <c r="I116" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="J116" s="77"/>
-      <c r="K116" s="77"/>
-      <c r="L116" s="77"/>
-      <c r="M116" s="77"/>
-      <c r="N116" s="77"/>
-      <c r="O116" s="77"/>
-      <c r="P116" s="77"/>
-      <c r="Q116" s="77"/>
-      <c r="R116" s="77"/>
-      <c r="S116" s="77"/>
-      <c r="T116" s="77"/>
-      <c r="U116" s="77"/>
-      <c r="V116" s="77"/>
-      <c r="W116" s="77"/>
-      <c r="X116" s="77"/>
-      <c r="Y116" s="77"/>
-      <c r="Z116" s="77"/>
-      <c r="AA116" s="77"/>
-      <c r="AB116" s="77"/>
-      <c r="AC116" s="77"/>
-      <c r="AD116" s="77"/>
-      <c r="AE116" s="77"/>
-      <c r="AF116" s="77"/>
-      <c r="AG116" s="77"/>
-      <c r="AH116" s="77"/>
-      <c r="AI116" s="77"/>
-      <c r="AJ116" s="77"/>
-    </row>
-    <row r="117" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="123">
-        <v>7</v>
-      </c>
-      <c r="B117" s="123" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="124" t="s">
-        <v>120</v>
-      </c>
-      <c r="D117" s="125"/>
-      <c r="E117" s="126"/>
-      <c r="F117" s="123"/>
-      <c r="G117" s="123"/>
-      <c r="H117" s="127"/>
-      <c r="I117" s="123"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="77"/>
-      <c r="Q117" s="77"/>
-      <c r="R117" s="77"/>
-      <c r="S117" s="77"/>
-      <c r="T117" s="77"/>
-      <c r="U117" s="77"/>
-      <c r="V117" s="77"/>
-      <c r="W117" s="77"/>
-      <c r="X117" s="77"/>
-      <c r="Y117" s="77"/>
-      <c r="Z117" s="77"/>
-      <c r="AA117" s="77"/>
-      <c r="AB117" s="77"/>
-      <c r="AC117" s="77"/>
-      <c r="AD117" s="77"/>
-      <c r="AE117" s="77"/>
-      <c r="AF117" s="77"/>
-      <c r="AG117" s="77"/>
-      <c r="AH117" s="77"/>
-      <c r="AI117" s="77"/>
-      <c r="AJ117" s="77"/>
-    </row>
-    <row r="118" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="77"/>
-      <c r="L118" s="77"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="77"/>
-      <c r="P118" s="77"/>
-      <c r="Q118" s="77"/>
-      <c r="R118" s="77"/>
-      <c r="S118" s="77"/>
-      <c r="T118" s="77"/>
-      <c r="U118" s="77"/>
-      <c r="V118" s="77"/>
-      <c r="W118" s="77"/>
-      <c r="X118" s="77"/>
-      <c r="Y118" s="77"/>
-      <c r="Z118" s="77"/>
-      <c r="AA118" s="77"/>
-      <c r="AB118" s="77"/>
-      <c r="AC118" s="77"/>
-      <c r="AD118" s="77"/>
-      <c r="AE118" s="77"/>
-      <c r="AF118" s="77"/>
-      <c r="AG118" s="77"/>
-      <c r="AH118" s="77"/>
-      <c r="AI118" s="77"/>
-      <c r="AJ118" s="77"/>
-    </row>
-    <row r="119" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="187" t="s">
-        <v>114</v>
-      </c>
-      <c r="B119" s="188"/>
-      <c r="C119" s="188"/>
-      <c r="D119" s="188"/>
-      <c r="E119" s="188"/>
-      <c r="F119" s="58"/>
-      <c r="G119" s="58"/>
-      <c r="H119" s="57"/>
-      <c r="I119" s="58"/>
-      <c r="J119" s="77"/>
-      <c r="K119" s="77"/>
-      <c r="L119" s="77"/>
-      <c r="M119" s="77"/>
-      <c r="N119" s="77"/>
-      <c r="O119" s="77"/>
-      <c r="P119" s="77"/>
-      <c r="Q119" s="77"/>
-      <c r="R119" s="77"/>
-      <c r="S119" s="77"/>
-      <c r="T119" s="77"/>
-      <c r="U119" s="77"/>
-      <c r="V119" s="77"/>
-      <c r="W119" s="77"/>
-      <c r="X119" s="77"/>
-      <c r="Y119" s="77"/>
-      <c r="Z119" s="77"/>
-      <c r="AA119" s="77"/>
-      <c r="AB119" s="77"/>
-      <c r="AC119" s="77"/>
-      <c r="AD119" s="77"/>
-      <c r="AE119" s="77"/>
-      <c r="AF119" s="77"/>
-      <c r="AG119" s="77"/>
-      <c r="AH119" s="77"/>
-      <c r="AI119" s="77"/>
-      <c r="AJ119" s="77"/>
-    </row>
-    <row r="120" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F120" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="H120" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I120" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="J120" s="77"/>
-      <c r="K120" s="77"/>
-      <c r="L120" s="77"/>
-      <c r="M120" s="77"/>
-      <c r="N120" s="77"/>
-      <c r="O120" s="77"/>
-      <c r="P120" s="77"/>
-      <c r="Q120" s="77"/>
-      <c r="R120" s="77"/>
-      <c r="S120" s="77"/>
-      <c r="T120" s="77"/>
-      <c r="U120" s="77"/>
-      <c r="V120" s="77"/>
-      <c r="W120" s="77"/>
-      <c r="X120" s="77"/>
-      <c r="Y120" s="77"/>
-      <c r="Z120" s="77"/>
-      <c r="AA120" s="77"/>
-      <c r="AB120" s="77"/>
-      <c r="AC120" s="77"/>
-      <c r="AD120" s="77"/>
-      <c r="AE120" s="77"/>
-      <c r="AF120" s="77"/>
-      <c r="AG120" s="77"/>
-      <c r="AH120" s="77"/>
-      <c r="AI120" s="77"/>
-      <c r="AJ120" s="77"/>
-    </row>
-    <row r="121" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="128">
-        <v>1</v>
-      </c>
-      <c r="B121" s="128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="130"/>
-      <c r="E121" s="131"/>
-      <c r="F121" s="132" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="132"/>
-      <c r="H121" s="133" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="132"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="77"/>
-      <c r="L121" s="77"/>
-      <c r="M121" s="77"/>
-      <c r="N121" s="77"/>
-      <c r="O121" s="77"/>
-      <c r="P121" s="77"/>
-      <c r="Q121" s="77"/>
-      <c r="R121" s="77"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="77"/>
-      <c r="V121" s="77"/>
-      <c r="W121" s="77"/>
-      <c r="X121" s="77"/>
-      <c r="Y121" s="77"/>
-      <c r="Z121" s="77"/>
-      <c r="AA121" s="77"/>
-      <c r="AB121" s="77"/>
-      <c r="AC121" s="77"/>
-      <c r="AD121" s="77"/>
-      <c r="AE121" s="77"/>
-      <c r="AF121" s="77"/>
-      <c r="AG121" s="77"/>
-      <c r="AH121" s="77"/>
-      <c r="AI121" s="77"/>
-      <c r="AJ121" s="77"/>
-    </row>
-    <row r="122" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="123">
-        <v>2</v>
-      </c>
-      <c r="B122" s="123" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D122" s="125"/>
-      <c r="E122" s="126"/>
-      <c r="F122" s="123"/>
-      <c r="G122" s="123"/>
-      <c r="H122" s="127"/>
-      <c r="I122" s="123"/>
-      <c r="J122" s="77"/>
-      <c r="K122" s="77"/>
-      <c r="L122" s="77"/>
-      <c r="M122" s="77"/>
-      <c r="N122" s="77"/>
-      <c r="O122" s="77"/>
-      <c r="P122" s="77"/>
-      <c r="Q122" s="77"/>
-      <c r="R122" s="77"/>
-      <c r="S122" s="77"/>
-      <c r="T122" s="77"/>
-      <c r="U122" s="77"/>
-      <c r="V122" s="77"/>
-      <c r="W122" s="77"/>
-      <c r="X122" s="77"/>
-      <c r="Y122" s="77"/>
-      <c r="Z122" s="77"/>
-      <c r="AA122" s="77"/>
-      <c r="AB122" s="77"/>
-      <c r="AC122" s="77"/>
-      <c r="AD122" s="77"/>
-      <c r="AE122" s="77"/>
-      <c r="AF122" s="77"/>
-      <c r="AG122" s="77"/>
-      <c r="AH122" s="77"/>
-      <c r="AI122" s="77"/>
-      <c r="AJ122" s="77"/>
-    </row>
-    <row r="123" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="123">
-        <v>3</v>
-      </c>
-      <c r="B123" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" s="125"/>
-      <c r="E123" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="F123" s="123"/>
-      <c r="G123" s="123"/>
-      <c r="H123" s="127"/>
-      <c r="I123" s="123"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="77"/>
-      <c r="L123" s="77"/>
-      <c r="M123" s="77"/>
-      <c r="N123" s="77"/>
-      <c r="O123" s="77"/>
-      <c r="P123" s="77"/>
-      <c r="Q123" s="77"/>
-      <c r="R123" s="77"/>
-      <c r="S123" s="77"/>
-      <c r="T123" s="77"/>
-      <c r="U123" s="77"/>
-      <c r="V123" s="77"/>
-      <c r="W123" s="77"/>
-      <c r="X123" s="77"/>
-      <c r="Y123" s="77"/>
-      <c r="Z123" s="77"/>
-      <c r="AA123" s="77"/>
-      <c r="AB123" s="77"/>
-      <c r="AC123" s="77"/>
-      <c r="AD123" s="77"/>
-      <c r="AE123" s="77"/>
-      <c r="AF123" s="77"/>
-      <c r="AG123" s="77"/>
-      <c r="AH123" s="77"/>
-      <c r="AI123" s="77"/>
-      <c r="AJ123" s="77"/>
-    </row>
-    <row r="124" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A124" s="123">
-        <v>4</v>
-      </c>
-      <c r="B124" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D124" s="125"/>
-      <c r="E124" s="126"/>
-      <c r="F124" s="123"/>
-      <c r="G124" s="123"/>
-      <c r="H124" s="127"/>
-      <c r="I124" s="123"/>
-      <c r="J124" s="77"/>
-      <c r="K124" s="77"/>
-      <c r="L124" s="77"/>
-      <c r="M124" s="77"/>
-      <c r="N124" s="77"/>
-      <c r="O124" s="77"/>
-      <c r="P124" s="77"/>
-      <c r="Q124" s="77"/>
-      <c r="R124" s="77"/>
-      <c r="S124" s="77"/>
-      <c r="T124" s="77"/>
-      <c r="U124" s="77"/>
-      <c r="V124" s="77"/>
-      <c r="W124" s="77"/>
-      <c r="X124" s="77"/>
-      <c r="Y124" s="77"/>
-      <c r="Z124" s="77"/>
-      <c r="AA124" s="77"/>
-      <c r="AB124" s="77"/>
-      <c r="AC124" s="77"/>
-      <c r="AD124" s="77"/>
-      <c r="AE124" s="77"/>
-      <c r="AF124" s="77"/>
-      <c r="AG124" s="77"/>
-      <c r="AH124" s="77"/>
-      <c r="AI124" s="77"/>
-      <c r="AJ124" s="77"/>
-    </row>
-    <row r="125" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A125" s="123">
-        <v>5</v>
-      </c>
-      <c r="B125" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D125" s="125"/>
-      <c r="E125" s="126"/>
-      <c r="F125" s="123"/>
-      <c r="G125" s="123"/>
-      <c r="H125" s="127"/>
-      <c r="I125" s="123"/>
-      <c r="J125" s="77"/>
-      <c r="K125" s="77"/>
-      <c r="L125" s="77"/>
-      <c r="M125" s="77"/>
-      <c r="N125" s="77"/>
-      <c r="O125" s="77"/>
-      <c r="P125" s="77"/>
-      <c r="Q125" s="77"/>
-      <c r="R125" s="77"/>
-      <c r="S125" s="77"/>
-      <c r="T125" s="77"/>
-      <c r="U125" s="77"/>
-      <c r="V125" s="77"/>
-      <c r="W125" s="77"/>
-      <c r="X125" s="77"/>
-      <c r="Y125" s="77"/>
-      <c r="Z125" s="77"/>
-      <c r="AA125" s="77"/>
-      <c r="AB125" s="77"/>
-      <c r="AC125" s="77"/>
-      <c r="AD125" s="77"/>
-      <c r="AE125" s="77"/>
-      <c r="AF125" s="77"/>
-      <c r="AG125" s="77"/>
-      <c r="AH125" s="77"/>
-      <c r="AI125" s="77"/>
-      <c r="AJ125" s="77"/>
-    </row>
-    <row r="126" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A126" s="123">
-        <v>6</v>
-      </c>
-      <c r="B126" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="C126" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="D126" s="125"/>
-      <c r="E126" s="126"/>
-      <c r="F126" s="123"/>
-      <c r="G126" s="123"/>
-      <c r="H126" s="127"/>
-      <c r="I126" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="J126" s="77"/>
-      <c r="K126" s="77"/>
-      <c r="L126" s="77"/>
-      <c r="M126" s="77"/>
-      <c r="N126" s="77"/>
-      <c r="O126" s="77"/>
-      <c r="P126" s="77"/>
-      <c r="Q126" s="77"/>
-      <c r="R126" s="77"/>
-      <c r="S126" s="77"/>
-      <c r="T126" s="77"/>
-      <c r="U126" s="77"/>
-      <c r="V126" s="77"/>
-      <c r="W126" s="77"/>
-      <c r="X126" s="77"/>
-      <c r="Y126" s="77"/>
-      <c r="Z126" s="77"/>
-      <c r="AA126" s="77"/>
-      <c r="AB126" s="77"/>
-      <c r="AC126" s="77"/>
-      <c r="AD126" s="77"/>
-      <c r="AE126" s="77"/>
-      <c r="AF126" s="77"/>
-      <c r="AG126" s="77"/>
-      <c r="AH126" s="77"/>
-      <c r="AI126" s="77"/>
-      <c r="AJ126" s="77"/>
-    </row>
-    <row r="127" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A127" s="123">
-        <v>7</v>
-      </c>
-      <c r="B127" s="123" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" s="124" t="s">
-        <v>120</v>
-      </c>
-      <c r="D127" s="125"/>
-      <c r="E127" s="126"/>
-      <c r="F127" s="123"/>
-      <c r="G127" s="123"/>
-      <c r="H127" s="127"/>
-      <c r="I127" s="123"/>
-      <c r="J127" s="77"/>
-      <c r="K127" s="77"/>
-      <c r="L127" s="77"/>
-      <c r="M127" s="77"/>
-      <c r="N127" s="77"/>
-      <c r="O127" s="77"/>
-      <c r="P127" s="77"/>
-      <c r="Q127" s="77"/>
-      <c r="R127" s="77"/>
-      <c r="S127" s="77"/>
-      <c r="T127" s="77"/>
-      <c r="U127" s="77"/>
-      <c r="V127" s="77"/>
-      <c r="W127" s="77"/>
-      <c r="X127" s="77"/>
-      <c r="Y127" s="77"/>
-      <c r="Z127" s="77"/>
-      <c r="AA127" s="77"/>
-      <c r="AB127" s="77"/>
-      <c r="AC127" s="77"/>
-      <c r="AD127" s="77"/>
-      <c r="AE127" s="77"/>
-      <c r="AF127" s="77"/>
-      <c r="AG127" s="77"/>
-      <c r="AH127" s="77"/>
-      <c r="AI127" s="77"/>
-      <c r="AJ127" s="77"/>
-    </row>
-    <row r="128" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A128" s="123">
-        <v>8</v>
-      </c>
-      <c r="B128" s="123" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" s="124" t="s">
-        <v>142</v>
-      </c>
-      <c r="D128" s="125"/>
-      <c r="E128" s="126"/>
-      <c r="F128" s="123"/>
-      <c r="G128" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="H128" s="127"/>
-      <c r="I128" s="123"/>
-      <c r="J128" s="77"/>
-      <c r="K128" s="77"/>
-      <c r="L128" s="77"/>
-      <c r="M128" s="77"/>
-      <c r="N128" s="77"/>
-      <c r="O128" s="77"/>
-      <c r="P128" s="77"/>
-      <c r="Q128" s="77"/>
-      <c r="R128" s="77"/>
-      <c r="S128" s="77"/>
-      <c r="T128" s="77"/>
-      <c r="U128" s="77"/>
-      <c r="V128" s="77"/>
-      <c r="W128" s="77"/>
-      <c r="X128" s="77"/>
-      <c r="Y128" s="77"/>
-      <c r="Z128" s="77"/>
-      <c r="AA128" s="77"/>
-      <c r="AB128" s="77"/>
-      <c r="AC128" s="77"/>
-      <c r="AD128" s="77"/>
-      <c r="AE128" s="77"/>
-      <c r="AF128" s="77"/>
-      <c r="AG128" s="77"/>
-      <c r="AH128" s="77"/>
-      <c r="AI128" s="77"/>
-      <c r="AJ128" s="77"/>
-    </row>
-    <row r="129" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A129" s="123"/>
-      <c r="B129" s="123" t="s">
-        <v>165</v>
-      </c>
-      <c r="C129" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="D129" s="125"/>
-      <c r="E129" s="126"/>
-      <c r="F129" s="123"/>
-      <c r="G129" s="123"/>
-      <c r="H129" s="127"/>
-      <c r="I129" s="123"/>
-      <c r="J129" s="77"/>
-      <c r="K129" s="77"/>
-      <c r="L129" s="77"/>
-      <c r="M129" s="77"/>
-      <c r="N129" s="77"/>
-      <c r="O129" s="77"/>
-      <c r="P129" s="77"/>
-      <c r="Q129" s="77"/>
-      <c r="R129" s="77"/>
-      <c r="S129" s="77"/>
-      <c r="T129" s="77"/>
-      <c r="U129" s="77"/>
-      <c r="V129" s="77"/>
-      <c r="W129" s="77"/>
-      <c r="X129" s="77"/>
-      <c r="Y129" s="77"/>
-      <c r="Z129" s="77"/>
-      <c r="AA129" s="77"/>
-      <c r="AB129" s="77"/>
-      <c r="AC129" s="77"/>
-      <c r="AD129" s="77"/>
-      <c r="AE129" s="77"/>
-      <c r="AF129" s="77"/>
-      <c r="AG129" s="77"/>
-      <c r="AH129" s="77"/>
-      <c r="AI129" s="77"/>
-      <c r="AJ129" s="77"/>
-    </row>
-    <row r="130" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="123"/>
-      <c r="B130" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="C130" s="124" t="s">
-        <v>142</v>
-      </c>
-      <c r="D130" s="125"/>
-      <c r="E130" s="126"/>
-      <c r="F130" s="123"/>
-      <c r="G130" s="123"/>
-      <c r="H130" s="127"/>
-      <c r="I130" s="123"/>
-      <c r="J130" s="77"/>
-      <c r="K130" s="77"/>
-      <c r="L130" s="77"/>
-      <c r="M130" s="77"/>
-      <c r="N130" s="77"/>
-      <c r="O130" s="77"/>
-      <c r="P130" s="77"/>
-      <c r="Q130" s="77"/>
-      <c r="R130" s="77"/>
-      <c r="S130" s="77"/>
-      <c r="T130" s="77"/>
-      <c r="U130" s="77"/>
-      <c r="V130" s="77"/>
-      <c r="W130" s="77"/>
-      <c r="X130" s="77"/>
-      <c r="Y130" s="77"/>
-      <c r="Z130" s="77"/>
-      <c r="AA130" s="77"/>
-      <c r="AB130" s="77"/>
-      <c r="AC130" s="77"/>
-      <c r="AD130" s="77"/>
-      <c r="AE130" s="77"/>
-      <c r="AF130" s="77"/>
-      <c r="AG130" s="77"/>
-      <c r="AH130" s="77"/>
-      <c r="AI130" s="77"/>
-      <c r="AJ130" s="77"/>
-    </row>
-    <row r="131" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="123"/>
-      <c r="B131" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="C131" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="D131" s="125"/>
-      <c r="E131" s="126"/>
-      <c r="F131" s="123"/>
-      <c r="G131" s="123"/>
-      <c r="H131" s="127"/>
-      <c r="I131" s="123"/>
-      <c r="J131" s="77"/>
-      <c r="K131" s="77"/>
-      <c r="L131" s="77"/>
-      <c r="M131" s="77"/>
-      <c r="N131" s="77"/>
-      <c r="O131" s="77"/>
-      <c r="P131" s="77"/>
-      <c r="Q131" s="77"/>
-      <c r="R131" s="77"/>
-      <c r="S131" s="77"/>
-      <c r="T131" s="77"/>
-      <c r="U131" s="77"/>
-      <c r="V131" s="77"/>
-      <c r="W131" s="77"/>
-      <c r="X131" s="77"/>
-      <c r="Y131" s="77"/>
-      <c r="Z131" s="77"/>
-      <c r="AA131" s="77"/>
-      <c r="AB131" s="77"/>
-      <c r="AC131" s="77"/>
-      <c r="AD131" s="77"/>
-      <c r="AE131" s="77"/>
-      <c r="AF131" s="77"/>
-      <c r="AG131" s="77"/>
-      <c r="AH131" s="77"/>
-      <c r="AI131" s="77"/>
-      <c r="AJ131" s="77"/>
-    </row>
-    <row r="132" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="123"/>
-      <c r="B132" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="C132" s="124" t="s">
-        <v>120</v>
-      </c>
-      <c r="D132" s="125"/>
-      <c r="E132" s="126"/>
-      <c r="F132" s="123"/>
-      <c r="G132" s="123"/>
-      <c r="H132" s="127"/>
-      <c r="I132" s="123"/>
-      <c r="J132" s="77"/>
-      <c r="K132" s="77"/>
-      <c r="L132" s="77"/>
-      <c r="M132" s="77"/>
-      <c r="N132" s="77"/>
-      <c r="O132" s="77"/>
-      <c r="P132" s="77"/>
-      <c r="Q132" s="77"/>
-      <c r="R132" s="77"/>
-      <c r="S132" s="77"/>
-      <c r="T132" s="77"/>
-      <c r="U132" s="77"/>
-      <c r="V132" s="77"/>
-      <c r="W132" s="77"/>
-      <c r="X132" s="77"/>
-      <c r="Y132" s="77"/>
-      <c r="Z132" s="77"/>
-      <c r="AA132" s="77"/>
-      <c r="AB132" s="77"/>
-      <c r="AC132" s="77"/>
-      <c r="AD132" s="77"/>
-      <c r="AE132" s="77"/>
-      <c r="AF132" s="77"/>
-      <c r="AG132" s="77"/>
-      <c r="AH132" s="77"/>
-      <c r="AI132" s="77"/>
-      <c r="AJ132" s="77"/>
-    </row>
-    <row r="133" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="77"/>
-      <c r="K133" s="77"/>
-      <c r="L133" s="77"/>
-      <c r="M133" s="77"/>
-      <c r="N133" s="77"/>
-      <c r="O133" s="77"/>
-      <c r="P133" s="77"/>
-      <c r="Q133" s="77"/>
-      <c r="R133" s="77"/>
-      <c r="S133" s="77"/>
-      <c r="T133" s="77"/>
-      <c r="U133" s="77"/>
-      <c r="V133" s="77"/>
-      <c r="W133" s="77"/>
-      <c r="X133" s="77"/>
-      <c r="Y133" s="77"/>
-      <c r="Z133" s="77"/>
-      <c r="AA133" s="77"/>
-      <c r="AB133" s="77"/>
-      <c r="AC133" s="77"/>
-      <c r="AD133" s="77"/>
-      <c r="AE133" s="77"/>
-      <c r="AF133" s="77"/>
-      <c r="AG133" s="77"/>
-      <c r="AH133" s="77"/>
-      <c r="AI133" s="77"/>
-      <c r="AJ133" s="77"/>
-    </row>
-    <row r="134" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="187" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" s="188"/>
-      <c r="C134" s="188"/>
-      <c r="D134" s="188"/>
-      <c r="E134" s="188"/>
-      <c r="F134" s="58"/>
-      <c r="G134" s="58"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="58"/>
-      <c r="J134" s="77"/>
-      <c r="K134" s="77"/>
-      <c r="L134" s="77"/>
-      <c r="M134" s="77"/>
-      <c r="N134" s="77"/>
-      <c r="O134" s="77"/>
-      <c r="P134" s="77"/>
-      <c r="Q134" s="77"/>
-      <c r="R134" s="77"/>
-      <c r="S134" s="77"/>
-      <c r="T134" s="77"/>
-      <c r="U134" s="77"/>
-      <c r="V134" s="77"/>
-      <c r="W134" s="77"/>
-      <c r="X134" s="77"/>
-      <c r="Y134" s="77"/>
-      <c r="Z134" s="77"/>
-      <c r="AA134" s="77"/>
-      <c r="AB134" s="77"/>
-      <c r="AC134" s="77"/>
-      <c r="AD134" s="77"/>
-      <c r="AE134" s="77"/>
-      <c r="AF134" s="77"/>
-      <c r="AG134" s="77"/>
-      <c r="AH134" s="77"/>
-      <c r="AI134" s="77"/>
-      <c r="AJ134" s="77"/>
-    </row>
-    <row r="135" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="H135" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I135" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="J135" s="77"/>
-      <c r="K135" s="77"/>
-      <c r="L135" s="77"/>
-      <c r="M135" s="77"/>
-      <c r="N135" s="77"/>
-      <c r="O135" s="77"/>
-      <c r="P135" s="77"/>
-      <c r="Q135" s="77"/>
-      <c r="R135" s="77"/>
-      <c r="S135" s="77"/>
-      <c r="T135" s="77"/>
-      <c r="U135" s="77"/>
-      <c r="V135" s="77"/>
-      <c r="W135" s="77"/>
-      <c r="X135" s="77"/>
-      <c r="Y135" s="77"/>
-      <c r="Z135" s="77"/>
-      <c r="AA135" s="77"/>
-      <c r="AB135" s="77"/>
-      <c r="AC135" s="77"/>
-      <c r="AD135" s="77"/>
-      <c r="AE135" s="77"/>
-      <c r="AF135" s="77"/>
-      <c r="AG135" s="77"/>
-      <c r="AH135" s="77"/>
-      <c r="AI135" s="77"/>
-      <c r="AJ135" s="77"/>
-    </row>
-    <row r="136" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="128">
-        <v>1</v>
-      </c>
-      <c r="B136" s="128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" s="130"/>
-      <c r="E136" s="131"/>
-      <c r="F136" s="132" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="132"/>
-      <c r="H136" s="133" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" s="132"/>
-      <c r="J136" s="77"/>
-      <c r="K136" s="77"/>
-      <c r="L136" s="77"/>
-      <c r="M136" s="77"/>
-      <c r="N136" s="77"/>
-      <c r="O136" s="77"/>
-      <c r="P136" s="77"/>
-      <c r="Q136" s="77"/>
-      <c r="R136" s="77"/>
-      <c r="S136" s="77"/>
-      <c r="T136" s="77"/>
-      <c r="U136" s="77"/>
-      <c r="V136" s="77"/>
-      <c r="W136" s="77"/>
-      <c r="X136" s="77"/>
-      <c r="Y136" s="77"/>
-      <c r="Z136" s="77"/>
-      <c r="AA136" s="77"/>
-      <c r="AB136" s="77"/>
-      <c r="AC136" s="77"/>
-      <c r="AD136" s="77"/>
-      <c r="AE136" s="77"/>
-      <c r="AF136" s="77"/>
-      <c r="AG136" s="77"/>
-      <c r="AH136" s="77"/>
-      <c r="AI136" s="77"/>
-      <c r="AJ136" s="77"/>
-    </row>
-    <row r="137" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="123">
-        <v>2</v>
-      </c>
-      <c r="B137" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D137" s="125"/>
-      <c r="E137" s="126"/>
-      <c r="F137" s="123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="123"/>
-      <c r="H137" s="127"/>
-      <c r="I137" s="123"/>
-      <c r="J137" s="77"/>
-      <c r="K137" s="77"/>
-      <c r="L137" s="77"/>
-      <c r="M137" s="77"/>
-      <c r="N137" s="77"/>
-      <c r="O137" s="77"/>
-      <c r="P137" s="77"/>
-      <c r="Q137" s="77"/>
-      <c r="R137" s="77"/>
-      <c r="S137" s="77"/>
-      <c r="T137" s="77"/>
-      <c r="U137" s="77"/>
-      <c r="V137" s="77"/>
-      <c r="W137" s="77"/>
-      <c r="X137" s="77"/>
-      <c r="Y137" s="77"/>
-      <c r="Z137" s="77"/>
-      <c r="AA137" s="77"/>
-      <c r="AB137" s="77"/>
-      <c r="AC137" s="77"/>
-      <c r="AD137" s="77"/>
-      <c r="AE137" s="77"/>
-      <c r="AF137" s="77"/>
-      <c r="AG137" s="77"/>
-      <c r="AH137" s="77"/>
-      <c r="AI137" s="77"/>
-      <c r="AJ137" s="77"/>
-    </row>
-    <row r="138" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="123">
-        <v>3</v>
-      </c>
-      <c r="B138" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="C138" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="D138" s="125"/>
-      <c r="E138" s="126"/>
-      <c r="F138" s="123"/>
-      <c r="G138" s="123"/>
-      <c r="H138" s="127"/>
-      <c r="I138" s="123"/>
-      <c r="J138" s="77"/>
-      <c r="K138" s="77"/>
-      <c r="L138" s="77"/>
-      <c r="M138" s="77"/>
-      <c r="N138" s="77"/>
-      <c r="O138" s="77"/>
-      <c r="P138" s="77"/>
-      <c r="Q138" s="77"/>
-      <c r="R138" s="77"/>
-      <c r="S138" s="77"/>
-      <c r="T138" s="77"/>
-      <c r="U138" s="77"/>
-      <c r="V138" s="77"/>
-      <c r="W138" s="77"/>
-      <c r="X138" s="77"/>
-      <c r="Y138" s="77"/>
-      <c r="Z138" s="77"/>
-      <c r="AA138" s="77"/>
-      <c r="AB138" s="77"/>
-      <c r="AC138" s="77"/>
-      <c r="AD138" s="77"/>
-      <c r="AE138" s="77"/>
-      <c r="AF138" s="77"/>
-      <c r="AG138" s="77"/>
-      <c r="AH138" s="77"/>
-      <c r="AI138" s="77"/>
-      <c r="AJ138" s="77"/>
-    </row>
-    <row r="139" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="123">
-        <v>4</v>
-      </c>
-      <c r="B139" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="C139" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="D139" s="125"/>
-      <c r="E139" s="126"/>
-      <c r="F139" s="123"/>
-      <c r="G139" s="123"/>
-      <c r="H139" s="127"/>
-      <c r="I139" s="123"/>
-      <c r="J139" s="77"/>
-      <c r="K139" s="77"/>
-      <c r="L139" s="77"/>
-      <c r="M139" s="77"/>
-      <c r="N139" s="77"/>
-      <c r="O139" s="77"/>
-      <c r="P139" s="77"/>
-      <c r="Q139" s="77"/>
-      <c r="R139" s="77"/>
-      <c r="S139" s="77"/>
-      <c r="T139" s="77"/>
-      <c r="U139" s="77"/>
-      <c r="V139" s="77"/>
-      <c r="W139" s="77"/>
-      <c r="X139" s="77"/>
-      <c r="Y139" s="77"/>
-      <c r="Z139" s="77"/>
-      <c r="AA139" s="77"/>
-      <c r="AB139" s="77"/>
-      <c r="AC139" s="77"/>
-      <c r="AD139" s="77"/>
-      <c r="AE139" s="77"/>
-      <c r="AF139" s="77"/>
-      <c r="AG139" s="77"/>
-      <c r="AH139" s="77"/>
-      <c r="AI139" s="77"/>
-      <c r="AJ139" s="77"/>
-    </row>
-    <row r="140" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="123">
-        <v>5</v>
-      </c>
-      <c r="B140" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="C140" s="124" t="s">
-        <v>120</v>
-      </c>
-      <c r="D140" s="125"/>
-      <c r="E140" s="126"/>
-      <c r="F140" s="123"/>
-      <c r="G140" s="123"/>
-      <c r="H140" s="127"/>
-      <c r="I140" s="123"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="77"/>
-      <c r="L140" s="77"/>
-      <c r="M140" s="77"/>
-      <c r="N140" s="77"/>
-      <c r="O140" s="77"/>
-      <c r="P140" s="77"/>
-      <c r="Q140" s="77"/>
-      <c r="R140" s="77"/>
-      <c r="S140" s="77"/>
-      <c r="T140" s="77"/>
-      <c r="U140" s="77"/>
-      <c r="V140" s="77"/>
-      <c r="W140" s="77"/>
-      <c r="X140" s="77"/>
-      <c r="Y140" s="77"/>
-      <c r="Z140" s="77"/>
-      <c r="AA140" s="77"/>
-      <c r="AB140" s="77"/>
-      <c r="AC140" s="77"/>
-      <c r="AD140" s="77"/>
-      <c r="AE140" s="77"/>
-      <c r="AF140" s="77"/>
-      <c r="AG140" s="77"/>
-      <c r="AH140" s="77"/>
-      <c r="AI140" s="77"/>
-      <c r="AJ140" s="77"/>
-    </row>
-    <row r="141" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="123">
-        <v>6</v>
-      </c>
-      <c r="B141" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="C141" s="124" t="s">
-        <v>138</v>
-      </c>
-      <c r="D141" s="125"/>
-      <c r="E141" s="126"/>
-      <c r="F141" s="123"/>
-      <c r="G141" s="123"/>
-      <c r="H141" s="127"/>
-      <c r="I141" s="123"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="77"/>
-      <c r="L141" s="77"/>
-      <c r="M141" s="77"/>
-      <c r="N141" s="77"/>
-      <c r="O141" s="77"/>
-      <c r="P141" s="77"/>
-      <c r="Q141" s="77"/>
-      <c r="R141" s="77"/>
-      <c r="S141" s="77"/>
-      <c r="T141" s="77"/>
-      <c r="U141" s="77"/>
-      <c r="V141" s="77"/>
-      <c r="W141" s="77"/>
-      <c r="X141" s="77"/>
-      <c r="Y141" s="77"/>
-      <c r="Z141" s="77"/>
-      <c r="AA141" s="77"/>
-      <c r="AB141" s="77"/>
-      <c r="AC141" s="77"/>
-      <c r="AD141" s="77"/>
-      <c r="AE141" s="77"/>
-      <c r="AF141" s="77"/>
-      <c r="AG141" s="77"/>
-      <c r="AH141" s="77"/>
-      <c r="AI141" s="77"/>
-      <c r="AJ141" s="77"/>
-    </row>
-    <row r="142" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="77"/>
-      <c r="L142" s="77"/>
-      <c r="M142" s="77"/>
-      <c r="N142" s="77"/>
-      <c r="O142" s="77"/>
-      <c r="P142" s="77"/>
-      <c r="Q142" s="77"/>
-      <c r="R142" s="77"/>
-      <c r="S142" s="77"/>
-      <c r="T142" s="77"/>
-      <c r="U142" s="77"/>
-      <c r="V142" s="77"/>
-      <c r="W142" s="77"/>
-      <c r="X142" s="77"/>
-      <c r="Y142" s="77"/>
-      <c r="Z142" s="77"/>
-      <c r="AA142" s="77"/>
-      <c r="AB142" s="77"/>
-      <c r="AC142" s="77"/>
-      <c r="AD142" s="77"/>
-      <c r="AE142" s="77"/>
-      <c r="AF142" s="77"/>
-      <c r="AG142" s="77"/>
-      <c r="AH142" s="77"/>
-      <c r="AI142" s="77"/>
-      <c r="AJ142" s="77"/>
+    <row r="109" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A109" s="54"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="54"/>
+      <c r="O109" s="54"/>
+      <c r="P109" s="54"/>
+      <c r="Q109" s="54"/>
+      <c r="R109" s="54"/>
+      <c r="S109" s="54"/>
+      <c r="T109" s="54"/>
+      <c r="U109" s="54"/>
+      <c r="V109" s="54"/>
+      <c r="W109" s="54"/>
+      <c r="X109" s="54"/>
+      <c r="Y109" s="54"/>
+      <c r="Z109" s="54"/>
     </row>
     <row r="143" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
@@ -7706,54 +6251,64 @@
       <c r="AI157" s="77"/>
       <c r="AJ157" s="77"/>
     </row>
-    <row r="158" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="77"/>
-      <c r="K158" s="77"/>
-      <c r="L158" s="77"/>
-      <c r="M158" s="77"/>
-      <c r="N158" s="77"/>
-      <c r="O158" s="77"/>
-      <c r="P158" s="77"/>
-      <c r="Q158" s="77"/>
-      <c r="R158" s="77"/>
-      <c r="S158" s="77"/>
-      <c r="T158" s="77"/>
-      <c r="U158" s="77"/>
-      <c r="V158" s="77"/>
-      <c r="W158" s="77"/>
-      <c r="X158" s="77"/>
-      <c r="Y158" s="77"/>
-      <c r="Z158" s="77"/>
-      <c r="AA158" s="77"/>
-      <c r="AB158" s="77"/>
-      <c r="AC158" s="77"/>
-      <c r="AD158" s="77"/>
-      <c r="AE158" s="77"/>
-      <c r="AF158" s="77"/>
-      <c r="AG158" s="77"/>
-      <c r="AH158" s="77"/>
-      <c r="AI158" s="77"/>
-      <c r="AJ158" s="77"/>
-    </row>
-    <row r="159" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
+    <row r="158" spans="1:36" s="78" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A158" s="191" t="s">
+        <v>109</v>
+      </c>
+      <c r="B158" s="192"/>
+      <c r="C158" s="192"/>
+      <c r="D158" s="192"/>
+      <c r="E158" s="192"/>
+      <c r="F158" s="58"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="58"/>
+      <c r="J158" s="88"/>
+      <c r="K158" s="88"/>
+      <c r="L158" s="88"/>
+      <c r="M158" s="88"/>
+      <c r="N158" s="88"/>
+      <c r="O158" s="88"/>
+      <c r="P158" s="88"/>
+      <c r="Q158" s="88"/>
+      <c r="R158" s="88"/>
+      <c r="S158" s="88"/>
+      <c r="T158" s="88"/>
+      <c r="U158" s="88"/>
+      <c r="V158" s="88"/>
+      <c r="W158" s="88"/>
+      <c r="X158" s="88"/>
+      <c r="Y158" s="88"/>
+      <c r="Z158" s="88"/>
+    </row>
+    <row r="159" spans="1:36" s="78" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A159" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I159" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="J159" s="77"/>
       <c r="K159" s="77"/>
       <c r="L159" s="77"/>
@@ -7782,16 +6337,26 @@
       <c r="AI159" s="77"/>
       <c r="AJ159" s="77"/>
     </row>
-    <row r="160" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
+    <row r="160" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A160" s="116">
+        <v>1</v>
+      </c>
+      <c r="B160" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="118"/>
+      <c r="E160" s="119"/>
+      <c r="F160" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="120"/>
+      <c r="H160" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" s="120"/>
       <c r="J160" s="77"/>
       <c r="K160" s="77"/>
       <c r="L160" s="77"/>
@@ -7820,16 +6385,22 @@
       <c r="AI160" s="77"/>
       <c r="AJ160" s="77"/>
     </row>
-    <row r="161" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
+    <row r="161" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A161" s="123">
+        <v>2</v>
+      </c>
+      <c r="B161" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" s="125"/>
+      <c r="E161" s="126"/>
+      <c r="F161" s="123"/>
+      <c r="G161" s="123"/>
+      <c r="H161" s="127"/>
+      <c r="I161" s="123"/>
       <c r="J161" s="77"/>
       <c r="K161" s="77"/>
       <c r="L161" s="77"/>
@@ -7858,16 +6429,24 @@
       <c r="AI161" s="77"/>
       <c r="AJ161" s="77"/>
     </row>
-    <row r="162" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
+    <row r="162" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A162" s="123">
+        <v>3</v>
+      </c>
+      <c r="B162" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" s="125"/>
+      <c r="E162" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="F162" s="123"/>
+      <c r="G162" s="123"/>
+      <c r="H162" s="127"/>
+      <c r="I162" s="123"/>
       <c r="J162" s="77"/>
       <c r="K162" s="77"/>
       <c r="L162" s="77"/>
@@ -7896,16 +6475,22 @@
       <c r="AI162" s="77"/>
       <c r="AJ162" s="77"/>
     </row>
-    <row r="163" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
+    <row r="163" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A163" s="123">
+        <v>4</v>
+      </c>
+      <c r="B163" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" s="125"/>
+      <c r="E163" s="126"/>
+      <c r="F163" s="123"/>
+      <c r="G163" s="123"/>
+      <c r="H163" s="127"/>
+      <c r="I163" s="123"/>
       <c r="J163" s="77"/>
       <c r="K163" s="77"/>
       <c r="L163" s="77"/>
@@ -7934,16 +6519,22 @@
       <c r="AI163" s="77"/>
       <c r="AJ163" s="77"/>
     </row>
-    <row r="164" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
+    <row r="164" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="123">
+        <v>5</v>
+      </c>
+      <c r="B164" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="C164" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D164" s="125"/>
+      <c r="E164" s="126"/>
+      <c r="F164" s="123"/>
+      <c r="G164" s="123"/>
+      <c r="H164" s="127"/>
+      <c r="I164" s="123"/>
       <c r="J164" s="77"/>
       <c r="K164" s="77"/>
       <c r="L164" s="77"/>
@@ -7972,16 +6563,24 @@
       <c r="AI164" s="77"/>
       <c r="AJ164" s="77"/>
     </row>
-    <row r="165" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
+    <row r="165" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="123">
+        <v>6</v>
+      </c>
+      <c r="B165" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C165" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165" s="125"/>
+      <c r="E165" s="126"/>
+      <c r="F165" s="123"/>
+      <c r="G165" s="123"/>
+      <c r="H165" s="127"/>
+      <c r="I165" s="123" t="s">
+        <v>118</v>
+      </c>
       <c r="J165" s="77"/>
       <c r="K165" s="77"/>
       <c r="L165" s="77"/>
@@ -8010,16 +6609,22 @@
       <c r="AI165" s="77"/>
       <c r="AJ165" s="77"/>
     </row>
-    <row r="166" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
+    <row r="166" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="123">
+        <v>7</v>
+      </c>
+      <c r="B166" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C166" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166" s="125"/>
+      <c r="E166" s="126"/>
+      <c r="F166" s="123"/>
+      <c r="G166" s="123"/>
+      <c r="H166" s="127"/>
+      <c r="I166" s="123"/>
       <c r="J166" s="77"/>
       <c r="K166" s="77"/>
       <c r="L166" s="77"/>
@@ -8048,7 +6653,7 @@
       <c r="AI166" s="77"/>
       <c r="AJ166" s="77"/>
     </row>
-    <row r="167" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8086,16 +6691,18 @@
       <c r="AI167" s="77"/>
       <c r="AJ167" s="77"/>
     </row>
-    <row r="168" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
+    <row r="168" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="191" t="s">
+        <v>114</v>
+      </c>
+      <c r="B168" s="192"/>
+      <c r="C168" s="192"/>
+      <c r="D168" s="192"/>
+      <c r="E168" s="192"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="57"/>
+      <c r="I168" s="58"/>
       <c r="J168" s="77"/>
       <c r="K168" s="77"/>
       <c r="L168" s="77"/>
@@ -8124,16 +6731,34 @@
       <c r="AI168" s="77"/>
       <c r="AJ168" s="77"/>
     </row>
-    <row r="169" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
+    <row r="169" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I169" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="J169" s="77"/>
       <c r="K169" s="77"/>
       <c r="L169" s="77"/>
@@ -8162,16 +6787,26 @@
       <c r="AI169" s="77"/>
       <c r="AJ169" s="77"/>
     </row>
-    <row r="170" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
+    <row r="170" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="128">
+        <v>1</v>
+      </c>
+      <c r="B170" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" s="130"/>
+      <c r="E170" s="131"/>
+      <c r="F170" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="132"/>
+      <c r="H170" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" s="132"/>
       <c r="J170" s="77"/>
       <c r="K170" s="77"/>
       <c r="L170" s="77"/>
@@ -8200,16 +6835,22 @@
       <c r="AI170" s="77"/>
       <c r="AJ170" s="77"/>
     </row>
-    <row r="171" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
+    <row r="171" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="123">
+        <v>2</v>
+      </c>
+      <c r="B171" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C171" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D171" s="125"/>
+      <c r="E171" s="126"/>
+      <c r="F171" s="123"/>
+      <c r="G171" s="123"/>
+      <c r="H171" s="127"/>
+      <c r="I171" s="123"/>
       <c r="J171" s="77"/>
       <c r="K171" s="77"/>
       <c r="L171" s="77"/>
@@ -8238,16 +6879,24 @@
       <c r="AI171" s="77"/>
       <c r="AJ171" s="77"/>
     </row>
-    <row r="172" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
+    <row r="172" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="123">
+        <v>3</v>
+      </c>
+      <c r="B172" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="C172" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172" s="125"/>
+      <c r="E172" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="F172" s="123"/>
+      <c r="G172" s="123"/>
+      <c r="H172" s="127"/>
+      <c r="I172" s="123"/>
       <c r="J172" s="77"/>
       <c r="K172" s="77"/>
       <c r="L172" s="77"/>
@@ -8276,16 +6925,22 @@
       <c r="AI172" s="77"/>
       <c r="AJ172" s="77"/>
     </row>
-    <row r="173" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
+    <row r="173" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A173" s="123">
+        <v>4</v>
+      </c>
+      <c r="B173" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="C173" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D173" s="125"/>
+      <c r="E173" s="126"/>
+      <c r="F173" s="123"/>
+      <c r="G173" s="123"/>
+      <c r="H173" s="127"/>
+      <c r="I173" s="123"/>
       <c r="J173" s="77"/>
       <c r="K173" s="77"/>
       <c r="L173" s="77"/>
@@ -8314,16 +6969,22 @@
       <c r="AI173" s="77"/>
       <c r="AJ173" s="77"/>
     </row>
-    <row r="174" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
+    <row r="174" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A174" s="123">
+        <v>5</v>
+      </c>
+      <c r="B174" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="C174" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" s="125"/>
+      <c r="E174" s="126"/>
+      <c r="F174" s="123"/>
+      <c r="G174" s="123"/>
+      <c r="H174" s="127"/>
+      <c r="I174" s="123"/>
       <c r="J174" s="77"/>
       <c r="K174" s="77"/>
       <c r="L174" s="77"/>
@@ -8352,16 +7013,24 @@
       <c r="AI174" s="77"/>
       <c r="AJ174" s="77"/>
     </row>
-    <row r="175" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
+    <row r="175" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A175" s="123">
+        <v>6</v>
+      </c>
+      <c r="B175" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="D175" s="125"/>
+      <c r="E175" s="126"/>
+      <c r="F175" s="123"/>
+      <c r="G175" s="123"/>
+      <c r="H175" s="127"/>
+      <c r="I175" s="123" t="s">
+        <v>118</v>
+      </c>
       <c r="J175" s="77"/>
       <c r="K175" s="77"/>
       <c r="L175" s="77"/>
@@ -8390,16 +7059,22 @@
       <c r="AI175" s="77"/>
       <c r="AJ175" s="77"/>
     </row>
-    <row r="176" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
+    <row r="176" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A176" s="123">
+        <v>7</v>
+      </c>
+      <c r="B176" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C176" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="D176" s="125"/>
+      <c r="E176" s="126"/>
+      <c r="F176" s="123"/>
+      <c r="G176" s="123"/>
+      <c r="H176" s="127"/>
+      <c r="I176" s="123"/>
       <c r="J176" s="77"/>
       <c r="K176" s="77"/>
       <c r="L176" s="77"/>
@@ -8428,147 +7103,221 @@
       <c r="AI176" s="77"/>
       <c r="AJ176" s="77"/>
     </row>
-    <row r="177" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
-      <c r="Y177" s="1"/>
-      <c r="Z177" s="1"/>
-    </row>
-    <row r="178" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
-      <c r="Y178" s="1"/>
-      <c r="Z178" s="1"/>
-    </row>
-    <row r="179" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
-      <c r="Y179" s="1"/>
-      <c r="Z179" s="1"/>
-    </row>
-    <row r="180" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-      <c r="Y180" s="1"/>
-      <c r="Z180" s="1"/>
-    </row>
-    <row r="181" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-      <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
-    </row>
-    <row r="182" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A177" s="123">
+        <v>8</v>
+      </c>
+      <c r="B177" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D177" s="125"/>
+      <c r="E177" s="126"/>
+      <c r="F177" s="123"/>
+      <c r="G177" s="123" t="s">
+        <v>164</v>
+      </c>
+      <c r="H177" s="127"/>
+      <c r="I177" s="123"/>
+      <c r="J177" s="77"/>
+      <c r="K177" s="77"/>
+      <c r="L177" s="77"/>
+      <c r="M177" s="77"/>
+      <c r="N177" s="77"/>
+      <c r="O177" s="77"/>
+      <c r="P177" s="77"/>
+      <c r="Q177" s="77"/>
+      <c r="R177" s="77"/>
+      <c r="S177" s="77"/>
+      <c r="T177" s="77"/>
+      <c r="U177" s="77"/>
+      <c r="V177" s="77"/>
+      <c r="W177" s="77"/>
+      <c r="X177" s="77"/>
+      <c r="Y177" s="77"/>
+      <c r="Z177" s="77"/>
+      <c r="AA177" s="77"/>
+      <c r="AB177" s="77"/>
+      <c r="AC177" s="77"/>
+      <c r="AD177" s="77"/>
+      <c r="AE177" s="77"/>
+      <c r="AF177" s="77"/>
+      <c r="AG177" s="77"/>
+      <c r="AH177" s="77"/>
+      <c r="AI177" s="77"/>
+      <c r="AJ177" s="77"/>
+    </row>
+    <row r="178" spans="1:36" s="109" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A178" s="123"/>
+      <c r="B178" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C178" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="D178" s="125"/>
+      <c r="E178" s="126"/>
+      <c r="F178" s="123"/>
+      <c r="G178" s="123"/>
+      <c r="H178" s="127"/>
+      <c r="I178" s="123"/>
+      <c r="J178" s="77"/>
+      <c r="K178" s="77"/>
+      <c r="L178" s="77"/>
+      <c r="M178" s="77"/>
+      <c r="N178" s="77"/>
+      <c r="O178" s="77"/>
+      <c r="P178" s="77"/>
+      <c r="Q178" s="77"/>
+      <c r="R178" s="77"/>
+      <c r="S178" s="77"/>
+      <c r="T178" s="77"/>
+      <c r="U178" s="77"/>
+      <c r="V178" s="77"/>
+      <c r="W178" s="77"/>
+      <c r="X178" s="77"/>
+      <c r="Y178" s="77"/>
+      <c r="Z178" s="77"/>
+      <c r="AA178" s="77"/>
+      <c r="AB178" s="77"/>
+      <c r="AC178" s="77"/>
+      <c r="AD178" s="77"/>
+      <c r="AE178" s="77"/>
+      <c r="AF178" s="77"/>
+      <c r="AG178" s="77"/>
+      <c r="AH178" s="77"/>
+      <c r="AI178" s="77"/>
+      <c r="AJ178" s="77"/>
+    </row>
+    <row r="179" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="123"/>
+      <c r="B179" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C179" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D179" s="125"/>
+      <c r="E179" s="126"/>
+      <c r="F179" s="123"/>
+      <c r="G179" s="123"/>
+      <c r="H179" s="127"/>
+      <c r="I179" s="123"/>
+      <c r="J179" s="77"/>
+      <c r="K179" s="77"/>
+      <c r="L179" s="77"/>
+      <c r="M179" s="77"/>
+      <c r="N179" s="77"/>
+      <c r="O179" s="77"/>
+      <c r="P179" s="77"/>
+      <c r="Q179" s="77"/>
+      <c r="R179" s="77"/>
+      <c r="S179" s="77"/>
+      <c r="T179" s="77"/>
+      <c r="U179" s="77"/>
+      <c r="V179" s="77"/>
+      <c r="W179" s="77"/>
+      <c r="X179" s="77"/>
+      <c r="Y179" s="77"/>
+      <c r="Z179" s="77"/>
+      <c r="AA179" s="77"/>
+      <c r="AB179" s="77"/>
+      <c r="AC179" s="77"/>
+      <c r="AD179" s="77"/>
+      <c r="AE179" s="77"/>
+      <c r="AF179" s="77"/>
+      <c r="AG179" s="77"/>
+      <c r="AH179" s="77"/>
+      <c r="AI179" s="77"/>
+      <c r="AJ179" s="77"/>
+    </row>
+    <row r="180" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="123"/>
+      <c r="B180" s="123" t="s">
+        <v>167</v>
+      </c>
+      <c r="C180" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="D180" s="125"/>
+      <c r="E180" s="126"/>
+      <c r="F180" s="123"/>
+      <c r="G180" s="123"/>
+      <c r="H180" s="127"/>
+      <c r="I180" s="123"/>
+      <c r="J180" s="77"/>
+      <c r="K180" s="77"/>
+      <c r="L180" s="77"/>
+      <c r="M180" s="77"/>
+      <c r="N180" s="77"/>
+      <c r="O180" s="77"/>
+      <c r="P180" s="77"/>
+      <c r="Q180" s="77"/>
+      <c r="R180" s="77"/>
+      <c r="S180" s="77"/>
+      <c r="T180" s="77"/>
+      <c r="U180" s="77"/>
+      <c r="V180" s="77"/>
+      <c r="W180" s="77"/>
+      <c r="X180" s="77"/>
+      <c r="Y180" s="77"/>
+      <c r="Z180" s="77"/>
+      <c r="AA180" s="77"/>
+      <c r="AB180" s="77"/>
+      <c r="AC180" s="77"/>
+      <c r="AD180" s="77"/>
+      <c r="AE180" s="77"/>
+      <c r="AF180" s="77"/>
+      <c r="AG180" s="77"/>
+      <c r="AH180" s="77"/>
+      <c r="AI180" s="77"/>
+      <c r="AJ180" s="77"/>
+    </row>
+    <row r="181" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="123"/>
+      <c r="B181" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="C181" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="D181" s="125"/>
+      <c r="E181" s="126"/>
+      <c r="F181" s="123"/>
+      <c r="G181" s="123"/>
+      <c r="H181" s="127"/>
+      <c r="I181" s="123"/>
+      <c r="J181" s="77"/>
+      <c r="K181" s="77"/>
+      <c r="L181" s="77"/>
+      <c r="M181" s="77"/>
+      <c r="N181" s="77"/>
+      <c r="O181" s="77"/>
+      <c r="P181" s="77"/>
+      <c r="Q181" s="77"/>
+      <c r="R181" s="77"/>
+      <c r="S181" s="77"/>
+      <c r="T181" s="77"/>
+      <c r="U181" s="77"/>
+      <c r="V181" s="77"/>
+      <c r="W181" s="77"/>
+      <c r="X181" s="77"/>
+      <c r="Y181" s="77"/>
+      <c r="Z181" s="77"/>
+      <c r="AA181" s="77"/>
+      <c r="AB181" s="77"/>
+      <c r="AC181" s="77"/>
+      <c r="AD181" s="77"/>
+      <c r="AE181" s="77"/>
+      <c r="AF181" s="77"/>
+      <c r="AG181" s="77"/>
+      <c r="AH181" s="77"/>
+      <c r="AI181" s="77"/>
+      <c r="AJ181" s="77"/>
+    </row>
+    <row r="182" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8578,249 +7327,401 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
-      <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
-      <c r="V182" s="1"/>
-      <c r="W182" s="1"/>
-      <c r="X182" s="1"/>
-      <c r="Y182" s="1"/>
-      <c r="Z182" s="1"/>
-    </row>
-    <row r="183" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-      <c r="S183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
-      <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-      <c r="X183" s="1"/>
-      <c r="Y183" s="1"/>
-      <c r="Z183" s="1"/>
-    </row>
-    <row r="184" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
-      <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-      <c r="X184" s="1"/>
-      <c r="Y184" s="1"/>
-      <c r="Z184" s="1"/>
-    </row>
-    <row r="185" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-      <c r="S185" s="1"/>
-      <c r="T185" s="1"/>
-      <c r="U185" s="1"/>
-      <c r="V185" s="1"/>
-      <c r="W185" s="1"/>
-      <c r="X185" s="1"/>
-      <c r="Y185" s="1"/>
-      <c r="Z185" s="1"/>
-    </row>
-    <row r="186" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-      <c r="S186" s="1"/>
-      <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
-      <c r="V186" s="1"/>
-      <c r="W186" s="1"/>
-      <c r="X186" s="1"/>
-      <c r="Y186" s="1"/>
-      <c r="Z186" s="1"/>
-    </row>
-    <row r="187" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-      <c r="S187" s="1"/>
-      <c r="T187" s="1"/>
-      <c r="U187" s="1"/>
-      <c r="V187" s="1"/>
-      <c r="W187" s="1"/>
-      <c r="X187" s="1"/>
-      <c r="Y187" s="1"/>
-      <c r="Z187" s="1"/>
-    </row>
-    <row r="188" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
-      <c r="S188" s="1"/>
-      <c r="T188" s="1"/>
-      <c r="U188" s="1"/>
-      <c r="V188" s="1"/>
-      <c r="W188" s="1"/>
-      <c r="X188" s="1"/>
-      <c r="Y188" s="1"/>
-      <c r="Z188" s="1"/>
-    </row>
-    <row r="189" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
-      <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-      <c r="X189" s="1"/>
-      <c r="Y189" s="1"/>
-      <c r="Z189" s="1"/>
-    </row>
-    <row r="190" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-      <c r="S190" s="1"/>
-      <c r="T190" s="1"/>
-      <c r="U190" s="1"/>
-      <c r="V190" s="1"/>
-      <c r="W190" s="1"/>
-      <c r="X190" s="1"/>
-      <c r="Y190" s="1"/>
-      <c r="Z190" s="1"/>
-    </row>
-    <row r="191" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J182" s="77"/>
+      <c r="K182" s="77"/>
+      <c r="L182" s="77"/>
+      <c r="M182" s="77"/>
+      <c r="N182" s="77"/>
+      <c r="O182" s="77"/>
+      <c r="P182" s="77"/>
+      <c r="Q182" s="77"/>
+      <c r="R182" s="77"/>
+      <c r="S182" s="77"/>
+      <c r="T182" s="77"/>
+      <c r="U182" s="77"/>
+      <c r="V182" s="77"/>
+      <c r="W182" s="77"/>
+      <c r="X182" s="77"/>
+      <c r="Y182" s="77"/>
+      <c r="Z182" s="77"/>
+      <c r="AA182" s="77"/>
+      <c r="AB182" s="77"/>
+      <c r="AC182" s="77"/>
+      <c r="AD182" s="77"/>
+      <c r="AE182" s="77"/>
+      <c r="AF182" s="77"/>
+      <c r="AG182" s="77"/>
+      <c r="AH182" s="77"/>
+      <c r="AI182" s="77"/>
+      <c r="AJ182" s="77"/>
+    </row>
+    <row r="183" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="191" t="s">
+        <v>133</v>
+      </c>
+      <c r="B183" s="192"/>
+      <c r="C183" s="192"/>
+      <c r="D183" s="192"/>
+      <c r="E183" s="192"/>
+      <c r="F183" s="58"/>
+      <c r="G183" s="58"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="58"/>
+      <c r="J183" s="77"/>
+      <c r="K183" s="77"/>
+      <c r="L183" s="77"/>
+      <c r="M183" s="77"/>
+      <c r="N183" s="77"/>
+      <c r="O183" s="77"/>
+      <c r="P183" s="77"/>
+      <c r="Q183" s="77"/>
+      <c r="R183" s="77"/>
+      <c r="S183" s="77"/>
+      <c r="T183" s="77"/>
+      <c r="U183" s="77"/>
+      <c r="V183" s="77"/>
+      <c r="W183" s="77"/>
+      <c r="X183" s="77"/>
+      <c r="Y183" s="77"/>
+      <c r="Z183" s="77"/>
+      <c r="AA183" s="77"/>
+      <c r="AB183" s="77"/>
+      <c r="AC183" s="77"/>
+      <c r="AD183" s="77"/>
+      <c r="AE183" s="77"/>
+      <c r="AF183" s="77"/>
+      <c r="AG183" s="77"/>
+      <c r="AH183" s="77"/>
+      <c r="AI183" s="77"/>
+      <c r="AJ183" s="77"/>
+    </row>
+    <row r="184" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H184" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I184" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J184" s="77"/>
+      <c r="K184" s="77"/>
+      <c r="L184" s="77"/>
+      <c r="M184" s="77"/>
+      <c r="N184" s="77"/>
+      <c r="O184" s="77"/>
+      <c r="P184" s="77"/>
+      <c r="Q184" s="77"/>
+      <c r="R184" s="77"/>
+      <c r="S184" s="77"/>
+      <c r="T184" s="77"/>
+      <c r="U184" s="77"/>
+      <c r="V184" s="77"/>
+      <c r="W184" s="77"/>
+      <c r="X184" s="77"/>
+      <c r="Y184" s="77"/>
+      <c r="Z184" s="77"/>
+      <c r="AA184" s="77"/>
+      <c r="AB184" s="77"/>
+      <c r="AC184" s="77"/>
+      <c r="AD184" s="77"/>
+      <c r="AE184" s="77"/>
+      <c r="AF184" s="77"/>
+      <c r="AG184" s="77"/>
+      <c r="AH184" s="77"/>
+      <c r="AI184" s="77"/>
+      <c r="AJ184" s="77"/>
+    </row>
+    <row r="185" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="128">
+        <v>1</v>
+      </c>
+      <c r="B185" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="D185" s="130"/>
+      <c r="E185" s="131"/>
+      <c r="F185" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="132"/>
+      <c r="H185" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="I185" s="132"/>
+      <c r="J185" s="77"/>
+      <c r="K185" s="77"/>
+      <c r="L185" s="77"/>
+      <c r="M185" s="77"/>
+      <c r="N185" s="77"/>
+      <c r="O185" s="77"/>
+      <c r="P185" s="77"/>
+      <c r="Q185" s="77"/>
+      <c r="R185" s="77"/>
+      <c r="S185" s="77"/>
+      <c r="T185" s="77"/>
+      <c r="U185" s="77"/>
+      <c r="V185" s="77"/>
+      <c r="W185" s="77"/>
+      <c r="X185" s="77"/>
+      <c r="Y185" s="77"/>
+      <c r="Z185" s="77"/>
+      <c r="AA185" s="77"/>
+      <c r="AB185" s="77"/>
+      <c r="AC185" s="77"/>
+      <c r="AD185" s="77"/>
+      <c r="AE185" s="77"/>
+      <c r="AF185" s="77"/>
+      <c r="AG185" s="77"/>
+      <c r="AH185" s="77"/>
+      <c r="AI185" s="77"/>
+      <c r="AJ185" s="77"/>
+    </row>
+    <row r="186" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="123">
+        <v>2</v>
+      </c>
+      <c r="B186" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186" s="125"/>
+      <c r="E186" s="126"/>
+      <c r="F186" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" s="123"/>
+      <c r="H186" s="127"/>
+      <c r="I186" s="123"/>
+      <c r="J186" s="77"/>
+      <c r="K186" s="77"/>
+      <c r="L186" s="77"/>
+      <c r="M186" s="77"/>
+      <c r="N186" s="77"/>
+      <c r="O186" s="77"/>
+      <c r="P186" s="77"/>
+      <c r="Q186" s="77"/>
+      <c r="R186" s="77"/>
+      <c r="S186" s="77"/>
+      <c r="T186" s="77"/>
+      <c r="U186" s="77"/>
+      <c r="V186" s="77"/>
+      <c r="W186" s="77"/>
+      <c r="X186" s="77"/>
+      <c r="Y186" s="77"/>
+      <c r="Z186" s="77"/>
+      <c r="AA186" s="77"/>
+      <c r="AB186" s="77"/>
+      <c r="AC186" s="77"/>
+      <c r="AD186" s="77"/>
+      <c r="AE186" s="77"/>
+      <c r="AF186" s="77"/>
+      <c r="AG186" s="77"/>
+      <c r="AH186" s="77"/>
+      <c r="AI186" s="77"/>
+      <c r="AJ186" s="77"/>
+    </row>
+    <row r="187" spans="1:36" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="123">
+        <v>3</v>
+      </c>
+      <c r="B187" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="C187" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D187" s="125"/>
+      <c r="E187" s="126"/>
+      <c r="F187" s="123"/>
+      <c r="G187" s="123"/>
+      <c r="H187" s="127"/>
+      <c r="I187" s="123"/>
+      <c r="J187" s="77"/>
+      <c r="K187" s="77"/>
+      <c r="L187" s="77"/>
+      <c r="M187" s="77"/>
+      <c r="N187" s="77"/>
+      <c r="O187" s="77"/>
+      <c r="P187" s="77"/>
+      <c r="Q187" s="77"/>
+      <c r="R187" s="77"/>
+      <c r="S187" s="77"/>
+      <c r="T187" s="77"/>
+      <c r="U187" s="77"/>
+      <c r="V187" s="77"/>
+      <c r="W187" s="77"/>
+      <c r="X187" s="77"/>
+      <c r="Y187" s="77"/>
+      <c r="Z187" s="77"/>
+      <c r="AA187" s="77"/>
+      <c r="AB187" s="77"/>
+      <c r="AC187" s="77"/>
+      <c r="AD187" s="77"/>
+      <c r="AE187" s="77"/>
+      <c r="AF187" s="77"/>
+      <c r="AG187" s="77"/>
+      <c r="AH187" s="77"/>
+      <c r="AI187" s="77"/>
+      <c r="AJ187" s="77"/>
+    </row>
+    <row r="188" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="123">
+        <v>4</v>
+      </c>
+      <c r="B188" s="123" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="D188" s="125"/>
+      <c r="E188" s="126"/>
+      <c r="F188" s="123"/>
+      <c r="G188" s="123"/>
+      <c r="H188" s="127"/>
+      <c r="I188" s="123"/>
+      <c r="J188" s="77"/>
+      <c r="K188" s="77"/>
+      <c r="L188" s="77"/>
+      <c r="M188" s="77"/>
+      <c r="N188" s="77"/>
+      <c r="O188" s="77"/>
+      <c r="P188" s="77"/>
+      <c r="Q188" s="77"/>
+      <c r="R188" s="77"/>
+      <c r="S188" s="77"/>
+      <c r="T188" s="77"/>
+      <c r="U188" s="77"/>
+      <c r="V188" s="77"/>
+      <c r="W188" s="77"/>
+      <c r="X188" s="77"/>
+      <c r="Y188" s="77"/>
+      <c r="Z188" s="77"/>
+      <c r="AA188" s="77"/>
+      <c r="AB188" s="77"/>
+      <c r="AC188" s="77"/>
+      <c r="AD188" s="77"/>
+      <c r="AE188" s="77"/>
+      <c r="AF188" s="77"/>
+      <c r="AG188" s="77"/>
+      <c r="AH188" s="77"/>
+      <c r="AI188" s="77"/>
+      <c r="AJ188" s="77"/>
+    </row>
+    <row r="189" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="123">
+        <v>5</v>
+      </c>
+      <c r="B189" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="C189" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="D189" s="125"/>
+      <c r="E189" s="126"/>
+      <c r="F189" s="123"/>
+      <c r="G189" s="123"/>
+      <c r="H189" s="127"/>
+      <c r="I189" s="123"/>
+      <c r="J189" s="77"/>
+      <c r="K189" s="77"/>
+      <c r="L189" s="77"/>
+      <c r="M189" s="77"/>
+      <c r="N189" s="77"/>
+      <c r="O189" s="77"/>
+      <c r="P189" s="77"/>
+      <c r="Q189" s="77"/>
+      <c r="R189" s="77"/>
+      <c r="S189" s="77"/>
+      <c r="T189" s="77"/>
+      <c r="U189" s="77"/>
+      <c r="V189" s="77"/>
+      <c r="W189" s="77"/>
+      <c r="X189" s="77"/>
+      <c r="Y189" s="77"/>
+      <c r="Z189" s="77"/>
+      <c r="AA189" s="77"/>
+      <c r="AB189" s="77"/>
+      <c r="AC189" s="77"/>
+      <c r="AD189" s="77"/>
+      <c r="AE189" s="77"/>
+      <c r="AF189" s="77"/>
+      <c r="AG189" s="77"/>
+      <c r="AH189" s="77"/>
+      <c r="AI189" s="77"/>
+      <c r="AJ189" s="77"/>
+    </row>
+    <row r="190" spans="1:36" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="123">
+        <v>6</v>
+      </c>
+      <c r="B190" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="C190" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="D190" s="125"/>
+      <c r="E190" s="126"/>
+      <c r="F190" s="123"/>
+      <c r="G190" s="123"/>
+      <c r="H190" s="127"/>
+      <c r="I190" s="123"/>
+      <c r="J190" s="77"/>
+      <c r="K190" s="77"/>
+      <c r="L190" s="77"/>
+      <c r="M190" s="77"/>
+      <c r="N190" s="77"/>
+      <c r="O190" s="77"/>
+      <c r="P190" s="77"/>
+      <c r="Q190" s="77"/>
+      <c r="R190" s="77"/>
+      <c r="S190" s="77"/>
+      <c r="T190" s="77"/>
+      <c r="U190" s="77"/>
+      <c r="V190" s="77"/>
+      <c r="W190" s="77"/>
+      <c r="X190" s="77"/>
+      <c r="Y190" s="77"/>
+      <c r="Z190" s="77"/>
+      <c r="AA190" s="77"/>
+      <c r="AB190" s="77"/>
+      <c r="AC190" s="77"/>
+      <c r="AD190" s="77"/>
+      <c r="AE190" s="77"/>
+      <c r="AF190" s="77"/>
+      <c r="AG190" s="77"/>
+      <c r="AH190" s="77"/>
+      <c r="AI190" s="77"/>
+      <c r="AJ190" s="77"/>
+    </row>
+    <row r="191" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8848,7 +7749,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -29456,7 +28357,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -29466,6 +28367,23 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
+      <c r="J928" s="1"/>
+      <c r="K928" s="1"/>
+      <c r="L928" s="1"/>
+      <c r="M928" s="1"/>
+      <c r="N928" s="1"/>
+      <c r="O928" s="1"/>
+      <c r="P928" s="1"/>
+      <c r="Q928" s="1"/>
+      <c r="R928" s="1"/>
+      <c r="S928" s="1"/>
+      <c r="T928" s="1"/>
+      <c r="U928" s="1"/>
+      <c r="V928" s="1"/>
+      <c r="W928" s="1"/>
+      <c r="X928" s="1"/>
+      <c r="Y928" s="1"/>
+      <c r="Z928" s="1"/>
     </row>
     <row r="929" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A929" s="1"/>
@@ -29489,19 +28407,30 @@
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
     </row>
+    <row r="931" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A931" s="1"/>
+      <c r="B931" s="1"/>
+      <c r="C931" s="1"/>
+      <c r="D931" s="1"/>
+      <c r="E931" s="1"/>
+      <c r="F931" s="1"/>
+      <c r="G931" s="1"/>
+      <c r="H931" s="1"/>
+      <c r="I931" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A168:E168"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A158:E158"/>
     <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A104:E104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -58129,13 +57058,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="57"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -1750,8 +1750,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -1750,8 +1750,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3334" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="51480" yWindow="3334" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -1732,8 +1732,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView topLeftCell="A28" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -28429,8 +28429,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -1732,8 +1732,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView topLeftCell="A64" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -28429,8 +28429,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -28429,8 +28429,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -28429,8 +28429,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -28429,8 +28429,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -28429,8 +28429,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/public/docs/Database Design & Questions.xlsx
+++ b/public/docs/Database Design & Questions.xlsx
@@ -28429,8 +28429,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
